--- a/public/data/rekening.xlsx
+++ b/public/data/rekening.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\salepro\public\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CF7838-417A-4D64-84A7-EF46DBFDC504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9880"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="286">
   <si>
     <t>no</t>
   </si>
@@ -860,19 +866,25 @@
   </si>
   <si>
     <t>Taksiran PPh</t>
+  </si>
+  <si>
+    <t>4.1.01.06</t>
+  </si>
+  <si>
+    <t>Cashback Penjualan</t>
+  </si>
+  <si>
+    <t>5.1.01.06</t>
+  </si>
+  <si>
+    <t>Cashback Pembelian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -913,152 +925,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1079,25 +947,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
+        <fgColor theme="7" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,7 +977,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
+        <fgColor theme="9" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,186 +989,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1308,255 +1002,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1581,43 +1033,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1629,10 +1078,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1651,61 +1100,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
-    <cellStyle name="Bad" xfId="22" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
-    <cellStyle name="Total" xfId="24" builtinId="25"/>
-    <cellStyle name="Output" xfId="25" builtinId="21"/>
-    <cellStyle name="Currency" xfId="26" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
-    <cellStyle name="Note" xfId="28" builtinId="10"/>
-    <cellStyle name="Input" xfId="29" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
-    <cellStyle name="Good" xfId="32" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="Title" xfId="38" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
-    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
-    <cellStyle name="Link" xfId="43" builtinId="8"/>
-    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
-    <cellStyle name="Comma" xfId="45" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1963,22 +1368,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:I146"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="3" max="3" width="45.546875" customWidth="1"/>
+    <col min="3" max="3" width="45.54296875" customWidth="1"/>
     <col min="4" max="4" width="18.453125" customWidth="1"/>
     <col min="7" max="7" width="11.7265625" style="3" customWidth="1"/>
     <col min="8" max="8" width="12.90625" customWidth="1"/>
@@ -2013,7 +1418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2034,7 +1439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2055,7 +1460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2078,7 +1483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2101,7 +1506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2240,7 +1645,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2263,7 +1668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2286,7 +1691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2309,7 +1714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2332,7 +1737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2355,7 +1760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2564,7 +1969,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>60</v>
@@ -2587,7 +1992,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>62</v>
@@ -2610,7 +2015,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>64</v>
@@ -2633,7 +2038,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>66</v>
@@ -2654,7 +2059,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>68</v>
@@ -2677,7 +2082,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>70</v>
@@ -2700,7 +2105,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>72</v>
@@ -2723,7 +2128,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>74</v>
@@ -2746,7 +2151,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>76</v>
@@ -2769,7 +2174,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>78</v>
@@ -2792,7 +2197,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>80</v>
@@ -2815,7 +2220,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>82</v>
@@ -2838,7 +2243,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>84</v>
@@ -2861,7 +2266,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>86</v>
@@ -2884,7 +2289,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>88</v>
@@ -2907,7 +2312,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>90</v>
@@ -2930,7 +2335,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>92</v>
@@ -2953,7 +2358,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>94</v>
@@ -2976,7 +2381,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>96</v>
@@ -2999,7 +2404,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>98</v>
@@ -3022,7 +2427,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>100</v>
@@ -3045,7 +2450,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>102</v>
@@ -3068,7 +2473,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>104</v>
@@ -3091,7 +2496,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>105</v>
@@ -3114,7 +2519,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>107</v>
@@ -3137,7 +2542,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>108</v>
@@ -3160,7 +2565,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>109</v>
@@ -3181,7 +2586,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>111</v>
@@ -3202,7 +2607,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>113</v>
@@ -3225,7 +2630,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>115</v>
@@ -3248,7 +2653,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>117</v>
@@ -3271,7 +2676,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>119</v>
@@ -3294,7 +2699,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>121</v>
@@ -3317,7 +2722,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>122</v>
@@ -3340,7 +2745,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>124</v>
@@ -3363,7 +2768,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>125</v>
@@ -3386,7 +2791,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>126</v>
@@ -3409,7 +2814,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>128</v>
@@ -3432,7 +2837,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>130</v>
@@ -3455,7 +2860,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>132</v>
@@ -3478,7 +2883,7 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>134</v>
@@ -3501,7 +2906,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>136</v>
@@ -3524,7 +2929,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>138</v>
@@ -3547,7 +2952,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B68" s="12" t="s">
         <v>140</v>
@@ -3570,7 +2975,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>142</v>
@@ -3593,7 +2998,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>144</v>
@@ -3616,7 +3021,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>145</v>
@@ -3639,7 +3044,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>147</v>
@@ -3662,7 +3067,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>149</v>
@@ -3685,7 +3090,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>151</v>
@@ -3708,7 +3113,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>153</v>
@@ -3731,7 +3136,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>154</v>
@@ -3754,7 +3159,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>156</v>
@@ -3777,7 +3182,7 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>158</v>
@@ -3800,7 +3205,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B79" s="15" t="s">
         <v>160</v>
@@ -3823,7 +3228,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>162</v>
@@ -3846,7 +3251,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>164</v>
@@ -3869,7 +3274,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>166</v>
@@ -3892,7 +3297,7 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B83" s="15" t="s">
         <v>168</v>
@@ -3915,7 +3320,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>170</v>
@@ -3938,7 +3343,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>172</v>
@@ -3961,7 +3366,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>174</v>
@@ -3984,7 +3389,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B87" s="17" t="s">
         <v>175</v>
@@ -4007,7 +3412,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B88" s="17" t="s">
         <v>177</v>
@@ -4030,7 +3435,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B89" s="17" t="s">
         <v>179</v>
@@ -4053,7 +3458,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B90" s="17" t="s">
         <v>181</v>
@@ -4076,7 +3481,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B91" s="17" t="s">
         <v>183</v>
@@ -4099,45 +3504,45 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <v>88</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>15</v>
+        <v>91</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>89</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D93" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>185</v>
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>187</v>
@@ -4145,22 +3550,22 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>90</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C94" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D94" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E94">
-        <v>2</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>188</v>
+        <v>1</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>187</v>
@@ -4168,22 +3573,22 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>91</v>
-      </c>
-      <c r="B95" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="D95" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D95" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>187</v>
@@ -4191,15 +3596,15 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="D96" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D96" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E96">
@@ -4214,13 +3619,13 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D97" s="21" t="s">
         <v>15</v>
@@ -4237,13 +3642,13 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D98" s="21" t="s">
         <v>15</v>
@@ -4260,13 +3665,13 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D99" s="21" t="s">
         <v>15</v>
@@ -4283,22 +3688,22 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
-        <v>96</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D100" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D100" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>187</v>
@@ -4306,22 +3711,22 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101">
-        <v>97</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D101" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="D101" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E101">
-        <v>1</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>201</v>
+        <v>3</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>187</v>
@@ -4329,22 +3734,22 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
-        <v>98</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D102" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E102">
-        <v>2</v>
-      </c>
-      <c r="F102" t="s">
-        <v>201</v>
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>187</v>
@@ -4352,22 +3757,22 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103">
-        <v>99</v>
-      </c>
-      <c r="B103" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="C103" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="D103" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E103">
-        <v>3</v>
-      </c>
-      <c r="F103" s="26" t="s">
-        <v>204</v>
+        <v>1</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>187</v>
@@ -4375,13 +3780,13 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>15</v>
@@ -4389,8 +3794,8 @@
       <c r="E104">
         <v>2</v>
       </c>
-      <c r="F104" s="8" t="s">
-        <v>202</v>
+      <c r="F104" t="s">
+        <v>201</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>187</v>
@@ -4398,13 +3803,13 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D105" s="22" t="s">
         <v>15</v>
@@ -4412,8 +3817,8 @@
       <c r="E105">
         <v>3</v>
       </c>
-      <c r="F105" s="8" t="s">
-        <v>207</v>
+      <c r="F105" t="s">
+        <v>204</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>187</v>
@@ -4421,13 +3826,13 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>15</v>
@@ -4444,13 +3849,13 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D107" s="22" t="s">
         <v>15</v>
@@ -4459,7 +3864,7 @@
         <v>3</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>187</v>
@@ -4467,13 +3872,13 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>15</v>
@@ -4490,13 +3895,13 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D109" s="22" t="s">
         <v>15</v>
@@ -4505,7 +3910,7 @@
         <v>3</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>187</v>
@@ -4513,13 +3918,13 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>15</v>
@@ -4536,13 +3941,13 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D111" s="22" t="s">
         <v>15</v>
@@ -4550,8 +3955,8 @@
       <c r="E111">
         <v>3</v>
       </c>
-      <c r="F111" t="s">
-        <v>217</v>
+      <c r="F111" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>187</v>
@@ -4559,13 +3964,13 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>15</v>
@@ -4582,13 +3987,13 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D113" s="22" t="s">
         <v>15</v>
@@ -4596,8 +4001,8 @@
       <c r="E113">
         <v>3</v>
       </c>
-      <c r="F113" s="8" t="s">
-        <v>221</v>
+      <c r="F113" t="s">
+        <v>217</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>187</v>
@@ -4605,13 +4010,13 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>15</v>
@@ -4628,13 +4033,13 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D115" s="22" t="s">
         <v>15</v>
@@ -4643,7 +4048,7 @@
         <v>3</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>187</v>
@@ -4651,13 +4056,13 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>15</v>
@@ -4674,13 +4079,13 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D117" s="22" t="s">
         <v>15</v>
@@ -4689,7 +4094,7 @@
         <v>3</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>187</v>
@@ -4697,22 +4102,22 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
-        <v>114</v>
-      </c>
-      <c r="B118" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="C118" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="D118" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D118" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>187</v>
@@ -4720,13 +4125,13 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B119" s="22" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D119" s="22" t="s">
         <v>15</v>
@@ -4743,13 +4148,13 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B120" s="22" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D120" s="22" t="s">
         <v>15</v>
@@ -4766,13 +4171,13 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B121" s="22" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D121" s="22" t="s">
         <v>15</v>
@@ -4789,13 +4194,13 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D122" s="22" t="s">
         <v>15</v>
@@ -4812,22 +4217,22 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
-        <v>119</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D123" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="D123" s="22" t="s">
         <v>15</v>
       </c>
       <c r="E123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>187</v>
@@ -4835,13 +4240,13 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B124" s="22" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D124" s="22" t="s">
         <v>15</v>
@@ -4850,7 +4255,7 @@
         <v>3</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>187</v>
@@ -4858,22 +4263,22 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
-        <v>121</v>
-      </c>
-      <c r="B125" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="C125" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="D125" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D125" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>187</v>
@@ -4881,22 +4286,22 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
-        <v>122</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="D126" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D126" s="22" t="s">
         <v>15</v>
       </c>
       <c r="E126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>187</v>
@@ -4904,13 +4309,13 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B127" s="22" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D127" s="22" t="s">
         <v>15</v>
@@ -4919,99 +4324,99 @@
         <v>3</v>
       </c>
       <c r="F127" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="G127" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="128" s="1" customFormat="1" spans="1:7">
-      <c r="A128" s="1">
-        <v>124</v>
-      </c>
-      <c r="B128" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="C128" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="D128" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E128" s="1">
-        <v>0</v>
-      </c>
-      <c r="F128" s="1">
-        <v>0</v>
-      </c>
-      <c r="G128" s="27" t="s">
-        <v>171</v>
+      <c r="C128" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
-        <v>124</v>
-      </c>
-      <c r="B129" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="C129" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="D129" s="28" t="s">
-        <v>57</v>
+        <v>128</v>
+      </c>
+      <c r="B129" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="D129" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="E129">
-        <v>1</v>
-      </c>
-      <c r="F129" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" s="1" customFormat="1">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="G129" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130">
-        <v>125</v>
-      </c>
-      <c r="B130" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="C130" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="D130" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E130" s="38">
-        <v>2</v>
-      </c>
-      <c r="F130" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="G130" s="3" t="s">
+      <c r="C130" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="D130" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0</v>
+      </c>
+      <c r="G130" s="26" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131">
-        <v>126</v>
-      </c>
-      <c r="B131" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="C131" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="D131" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="C131" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="D131" s="27" t="s">
         <v>57</v>
       </c>
       <c r="E131">
-        <v>3</v>
-      </c>
-      <c r="F131" s="8" t="s">
-        <v>254</v>
+        <v>1</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>171</v>
@@ -5019,114 +4424,114 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132">
-        <v>127</v>
-      </c>
-      <c r="B132" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="C132" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="D132" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="E132">
-        <v>3</v>
-      </c>
-      <c r="F132" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" s="29" t="s">
         <v>254</v>
+      </c>
+      <c r="C132" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="D132" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E132" s="37">
+        <v>2</v>
+      </c>
+      <c r="F132" s="29" t="s">
+        <v>252</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="133" s="1" customFormat="1" spans="1:7">
+    <row r="133" spans="1:7">
       <c r="A133">
-        <v>128</v>
-      </c>
-      <c r="B133" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="C133" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="D133" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E133">
+        <v>3</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="C134" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="D134" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E134">
+        <v>3</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" s="1" customFormat="1">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="C133" s="25" t="s">
+      <c r="C135" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="D133" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E133" s="1">
+      <c r="D135" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E135" s="1">
         <v>0</v>
       </c>
-      <c r="F133" s="1">
+      <c r="F135" s="1">
         <v>0</v>
       </c>
-      <c r="G133" s="27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="134" s="2" customFormat="1" spans="1:7">
-      <c r="A134">
-        <v>129</v>
-      </c>
-      <c r="B134" s="28" t="s">
+      <c r="G135" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" s="2" customFormat="1">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="C134" s="29" t="s">
+      <c r="C136" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="D134" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E134" s="2">
+      <c r="D136" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E136" s="2">
         <v>1</v>
       </c>
-      <c r="F134" s="4" t="s">
+      <c r="F136" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135">
-        <v>130</v>
-      </c>
-      <c r="B135" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="C135" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="D135" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E135" s="39">
-        <v>2</v>
-      </c>
-      <c r="F135" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136">
-        <v>131</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E136">
-        <v>3</v>
-      </c>
-      <c r="F136" s="8" t="s">
-        <v>262</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>187</v>
@@ -5134,22 +4539,22 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137">
-        <v>132</v>
-      </c>
-      <c r="B137" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="C137" s="37" t="s">
-        <v>265</v>
-      </c>
-      <c r="D137" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E137" s="40">
-        <v>1</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>250</v>
+        <v>136</v>
+      </c>
+      <c r="B137" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="C137" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="D137" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E137" s="38">
+        <v>2</v>
+      </c>
+      <c r="F137" s="33" t="s">
+        <v>260</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>187</v>
@@ -5157,22 +4562,22 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138">
-        <v>133</v>
-      </c>
-      <c r="B138" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="C138" s="35" t="s">
-        <v>267</v>
-      </c>
-      <c r="D138" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E138" s="39">
-        <v>2</v>
-      </c>
-      <c r="F138" s="34" t="s">
-        <v>264</v>
+        <v>137</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E138">
+        <v>3</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>262</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>187</v>
@@ -5180,22 +4585,22 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139">
-        <v>134</v>
-      </c>
-      <c r="B139" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="C139" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="D139" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E139">
-        <v>3</v>
-      </c>
-      <c r="F139" s="8" t="s">
-        <v>266</v>
+        <v>138</v>
+      </c>
+      <c r="B139" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="C139" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="D139" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" s="39">
+        <v>1</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>187</v>
@@ -5203,22 +4608,22 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140">
-        <v>135</v>
-      </c>
-      <c r="B140" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="C140" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="D140" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E140">
-        <v>3</v>
-      </c>
-      <c r="F140" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" s="33" t="s">
         <v>266</v>
+      </c>
+      <c r="C140" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="D140" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E140" s="38">
+        <v>2</v>
+      </c>
+      <c r="F140" s="33" t="s">
+        <v>264</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>187</v>
@@ -5226,22 +4631,22 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141">
-        <v>136</v>
-      </c>
-      <c r="B141" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="C141" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="D141" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E141" s="39">
-        <v>2</v>
-      </c>
-      <c r="F141" s="34" t="s">
-        <v>264</v>
+        <v>140</v>
+      </c>
+      <c r="B141" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="C141" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="D141" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E141">
+        <v>3</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>266</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>187</v>
@@ -5249,22 +4654,22 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142">
-        <v>137</v>
-      </c>
-      <c r="B142" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="C142" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="D142" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="C142" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D142" s="31" t="s">
         <v>15</v>
       </c>
       <c r="E142">
         <v>3</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>187</v>
@@ -5272,22 +4677,22 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143">
-        <v>138</v>
-      </c>
-      <c r="B143" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="C143" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="D143" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E143">
-        <v>1</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>250</v>
+        <v>142</v>
+      </c>
+      <c r="B143" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="C143" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="D143" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143" s="38">
+        <v>2</v>
+      </c>
+      <c r="F143" s="33" t="s">
+        <v>264</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>187</v>
@@ -5295,22 +4700,22 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144">
-        <v>139</v>
-      </c>
-      <c r="B144" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="C144" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="D144" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E144" s="39">
-        <v>2</v>
-      </c>
-      <c r="F144" s="39" t="s">
-        <v>275</v>
+        <v>143</v>
+      </c>
+      <c r="B144" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="C144" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="D144" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144">
+        <v>3</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>272</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>187</v>
@@ -5318,22 +4723,22 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145">
-        <v>140</v>
-      </c>
-      <c r="B145" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="C145" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="D145" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="C145" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="D145" s="35" t="s">
         <v>15</v>
       </c>
       <c r="E145">
-        <v>3</v>
-      </c>
-      <c r="F145" t="s">
-        <v>277</v>
+        <v>1</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>187</v>
@@ -5341,29 +4746,74 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146">
-        <v>141</v>
-      </c>
-      <c r="B146" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="C146" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="D146" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E146" s="38">
+        <v>2</v>
+      </c>
+      <c r="F146" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="C147" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D147" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E147">
+        <v>3</v>
+      </c>
+      <c r="F147" t="s">
+        <v>277</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="C146" s="33" t="s">
+      <c r="C148" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="D146" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E146">
-        <v>3</v>
-      </c>
-      <c r="F146" t="s">
+      <c r="D148" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E148">
+        <v>3</v>
+      </c>
+      <c r="F148" t="s">
         <v>277</v>
       </c>
-      <c r="G146" s="3" t="s">
+      <c r="G148" s="3" t="s">
         <v>187</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>